--- a/Transcom-Tagamo3-DataBase/ReadyToSend/May-2025/جدول يوم 31-5-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/May-2025/جدول يوم 31-5-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -76,7 +76,7 @@
     <t>الخلفاوي</t>
   </si>
   <si>
-    <t>?</t>
+    <t>معاذ مصطفى</t>
   </si>
   <si>
     <t>مدينة نصر</t>
@@ -187,6 +187,9 @@
     <t>ميدان ابن الحكم</t>
   </si>
   <si>
+    <t>كريم علي</t>
+  </si>
+  <si>
     <t>خالد عبادة</t>
   </si>
   <si>
@@ -296,6 +299,15 @@
   </si>
   <si>
     <t>طالبية</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>عمر اشرف</t>
+  </si>
+  <si>
+    <t>ميدان لبنان</t>
   </si>
   <si>
     <t>فادي وجدي</t>
@@ -549,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF199C00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +930,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,16 +954,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -954,85 +972,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -1046,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,6 +1120,9 @@
     <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,13 +1132,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,75 +1478,81 @@
     </dxf>
   </dxfs>
   <tableStyles count="17" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{54397955-DDAC-40E6-9239-75FD02E3CA6F}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{0E3F0DEE-4339-469D-8825-35525B815A02}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{18F9B0A7-14F9-46DF-94F3-C24853F52699}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{60E8F043-BCF8-48A1-88CE-F76B6F1DB4ED}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{2ECBF962-D5F0-4C6E-8EC1-74A7630EA6C8}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{EB70CAF3-888A-44DB-A6ED-6E0A07575A92}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{36EB8E56-71D1-4255-834F-59E2B32A958A}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{9167AD19-76EE-4D5C-B51F-8158F70DBB0A}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{18B7ED6C-5C95-4DF4-8553-00775EC4469D}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{FC191EDA-6F05-4FC3-9164-FEC28CC7D003}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{CF737B89-20FC-408A-860A-5DB238F3A7FA}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{3495AEB7-AE4C-4DBE-8B8E-F685395C3E08}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{026E62CC-7E2A-4DD9-9726-95C789A96F6B}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{F162A5C9-B2BD-4074-B816-C3085B5FF286}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{498D7ED5-5810-4378-A217-D5FA90865D8F}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{9133569F-BEA9-4B37-8456-7CBB51CA085B}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{7AB89F7C-22AB-42A8-9D63-39633FAFBEA5}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{CB8196BE-4415-4C64-B15D-E47A8C49D87A}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{CB29C9D6-1DFB-4A18-A36B-A27653EBE5E0}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{CA070DF3-57E0-4C36-B7B5-EFB3FF44AD87}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{9A0A7DF8-2C05-4560-973E-228EAFC341B2}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{5314266D-5E10-4DCF-9253-C748A9068DB1}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{EE75477C-F0B6-4544-AD79-D4862394ABE9}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{0B9718F7-7025-4044-9B9D-A039E61CD311}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{AB716184-9C09-46AF-9499-CB01D49759A2}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{4C676EA4-E7A3-42AD-9681-5BEB7C71D557}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{0D12F593-AD4F-42D0-AFC0-CE3FA02BBBA6}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{15C55A7B-D47F-46B4-8FE6-4C61DFC2ABB1}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{F4555A08-1DD1-4B0A-BACB-CC871769C9C5}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{3E32E1D1-FC72-4C76-9297-4720ECDBD4CD}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{CF8DC7B3-C3F4-4DEB-91E3-287437AD8B32}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{008D35DA-CB3E-43E6-ACEC-AFA75BB2B5A6}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{2D122941-6705-465F-A124-2D6ACC3692ED}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{9C00382B-32EA-4182-9BFD-BF7C9B57C4D6}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00137800"/>
+      <color rgb="00199C00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1792,7 +1819,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG82"/>
+  <dimension ref="A1:AG88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -1822,31 +1849,31 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
     </row>
     <row r="2" ht="11" customHeight="1" spans="1:33">
       <c r="A2" s="9">
@@ -1859,31 +1886,31 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:33">
       <c r="A3" s="12"/>
@@ -1908,8 +1935,8 @@
       <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1943,8 +1970,8 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1952,22 +1979,22 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
     </row>
     <row r="5" ht="43.15" customHeight="1" spans="1:33">
       <c r="A5" s="6"/>
@@ -1992,8 +2019,8 @@
       <c r="H5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -2001,22 +2028,22 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
     </row>
     <row r="6" ht="43.15" customHeight="1" spans="1:33">
       <c r="A6" s="6"/>
@@ -2027,8 +2054,8 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2036,22 +2063,22 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
     </row>
     <row r="7" ht="7.5" customHeight="1" spans="1:33">
       <c r="A7" s="9">
@@ -2064,31 +2091,31 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
     </row>
     <row r="8" ht="43.5" customHeight="1" spans="1:33">
       <c r="A8" s="12"/>
@@ -2113,8 +2140,8 @@
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2148,8 +2175,8 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -2157,22 +2184,22 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
     </row>
     <row r="10" ht="43.15" customHeight="1" spans="1:33">
       <c r="A10" s="6"/>
@@ -2182,11 +2209,11 @@
       <c r="C10" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>8</v>
+      <c r="D10" s="15">
+        <v>1066387689</v>
+      </c>
+      <c r="E10" s="16">
+        <v>10318434</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>12</v>
@@ -2197,8 +2224,8 @@
       <c r="H10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2206,22 +2233,22 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
     </row>
     <row r="11" ht="43.15" customHeight="1" spans="1:33">
       <c r="A11" s="6"/>
@@ -2232,8 +2259,8 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2241,22 +2268,22 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
     </row>
     <row r="12" ht="7.5" customHeight="1" spans="1:33">
       <c r="A12" s="9">
@@ -2269,31 +2296,31 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
     </row>
     <row r="13" ht="43.5" customHeight="1" spans="1:33">
       <c r="A13" s="12"/>
@@ -2318,31 +2345,31 @@
       <c r="H13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
     </row>
     <row r="14" ht="43.5" customHeight="1" spans="1:33">
       <c r="A14" s="6"/>
@@ -2353,31 +2380,31 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
     </row>
     <row r="15" ht="43.5" customHeight="1" spans="1:33">
       <c r="A15" s="6"/>
@@ -2402,31 +2429,31 @@
       <c r="H15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
     </row>
     <row r="16" ht="43.5" customHeight="1" spans="1:33">
       <c r="A16" s="6"/>
@@ -2437,31 +2464,31 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
     </row>
     <row r="17" ht="43.5" customHeight="1" spans="1:33">
       <c r="A17" s="6"/>
@@ -2486,31 +2513,31 @@
       <c r="H17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
     </row>
     <row r="18" ht="43.5" customHeight="1" spans="1:33">
       <c r="A18" s="6"/>
@@ -2535,31 +2562,31 @@
       <c r="H18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
     </row>
     <row r="19" ht="43.5" customHeight="1" spans="1:33">
       <c r="A19" s="6"/>
@@ -2570,31 +2597,31 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
     </row>
     <row r="20" ht="43.5" customHeight="1" spans="1:33">
       <c r="A20" s="6"/>
@@ -2619,31 +2646,31 @@
       <c r="H20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
     </row>
     <row r="21" ht="43.5" customHeight="1" spans="1:33">
       <c r="A21" s="6"/>
@@ -2654,31 +2681,31 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
     </row>
     <row r="22" ht="43.5" customHeight="1" spans="1:33">
       <c r="A22" s="6"/>
@@ -2703,31 +2730,31 @@
       <c r="H22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
     </row>
     <row r="23" ht="43.5" customHeight="1" spans="1:33">
       <c r="A23" s="6"/>
@@ -2752,31 +2779,31 @@
       <c r="H23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
     </row>
     <row r="24" ht="43.5" customHeight="1" spans="1:33">
       <c r="A24" s="6"/>
@@ -2801,31 +2828,31 @@
       <c r="H24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
     </row>
     <row r="25" ht="43.5" customHeight="1" spans="1:33">
       <c r="A25" s="6"/>
@@ -2836,31 +2863,31 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
     </row>
     <row r="26" ht="43.5" customHeight="1" spans="1:33">
       <c r="A26" s="6"/>
@@ -2885,31 +2912,31 @@
       <c r="H26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
     </row>
     <row r="27" ht="43.5" customHeight="1" spans="1:33">
       <c r="A27" s="6"/>
@@ -2920,31 +2947,31 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
     </row>
     <row r="28" ht="43.5" customHeight="1" spans="1:33">
       <c r="A28" s="6"/>
@@ -2969,31 +2996,31 @@
       <c r="H28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
     </row>
     <row r="29" ht="43.5" customHeight="1" spans="1:33">
       <c r="A29" s="6"/>
@@ -3004,31 +3031,31 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
     </row>
     <row r="30" ht="43.5" customHeight="1" spans="1:33">
       <c r="A30" s="6"/>
@@ -3053,31 +3080,31 @@
       <c r="H30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
     </row>
     <row r="31" ht="43.5" customHeight="1" spans="1:33">
       <c r="A31" s="6"/>
@@ -3088,31 +3115,31 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
     </row>
     <row r="32" ht="43.5" customHeight="1" spans="1:33">
       <c r="A32" s="6"/>
@@ -3137,31 +3164,31 @@
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
     </row>
     <row r="33" ht="43.5" customHeight="1" spans="1:33">
       <c r="A33" s="6"/>
@@ -3172,31 +3199,31 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
     </row>
     <row r="34" ht="43.5" customHeight="1" spans="1:33">
       <c r="A34" s="6"/>
@@ -3221,31 +3248,31 @@
       <c r="H34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
     </row>
     <row r="35" ht="43.5" customHeight="1" spans="1:33">
       <c r="A35" s="6"/>
@@ -3256,31 +3283,31 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
     </row>
     <row r="36" ht="7.5" customHeight="1" spans="1:33">
       <c r="A36" s="9">
@@ -3293,31 +3320,31 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
     </row>
     <row r="37" ht="43.5" customHeight="1" spans="1:33">
       <c r="A37" s="12"/>
@@ -3342,31 +3369,31 @@
       <c r="H37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
     </row>
     <row r="38" ht="43.5" customHeight="1" spans="1:33">
       <c r="A38" s="6"/>
@@ -3377,31 +3404,31 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
     </row>
     <row r="39" ht="43.5" customHeight="1" spans="1:33">
       <c r="A39" s="6"/>
@@ -3426,656 +3453,656 @@
       <c r="H39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
     </row>
     <row r="40" ht="43.5" customHeight="1" spans="1:33">
       <c r="A40" s="6"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
+      <c r="B40" s="14">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1068635749</v>
+      </c>
+      <c r="E40" s="16">
+        <v>10318430</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
     </row>
     <row r="41" ht="43.5" customHeight="1" spans="1:33">
       <c r="A41" s="6"/>
-      <c r="B41" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D41" s="15">
-        <v>1141670967</v>
-      </c>
-      <c r="E41" s="16">
-        <v>10327225</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
     </row>
     <row r="42" ht="43.5" customHeight="1" spans="1:33">
       <c r="A42" s="6"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-    </row>
-    <row r="43" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A43" s="9">
+      <c r="B42" s="14">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1141670967</v>
+      </c>
+      <c r="E42" s="16">
+        <v>10327225</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+    </row>
+    <row r="43" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A43" s="6"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+    </row>
+    <row r="44" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A44" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-    </row>
-    <row r="44" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+    </row>
+    <row r="45" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A45" s="12"/>
+      <c r="B45" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-    </row>
-    <row r="45" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A45" s="6"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
     </row>
     <row r="46" ht="43.5" customHeight="1" spans="1:33">
       <c r="A46" s="6"/>
-      <c r="B46" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C46" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D46" s="15">
-        <v>1095599069</v>
-      </c>
-      <c r="E46" s="16">
-        <v>10306591</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
     </row>
     <row r="47" ht="43.5" customHeight="1" spans="1:33">
       <c r="A47" s="6"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
+      <c r="B47" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1095599069</v>
+      </c>
+      <c r="E47" s="16">
+        <v>10306591</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
     </row>
     <row r="48" ht="43.5" customHeight="1" spans="1:33">
       <c r="A48" s="6"/>
-      <c r="B48" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C48" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D48" s="15">
-        <v>1142664771</v>
-      </c>
-      <c r="E48" s="16">
-        <v>10250874</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
     </row>
     <row r="49" ht="43.5" customHeight="1" spans="1:33">
       <c r="A49" s="6"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
+      <c r="B49" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1142664771</v>
+      </c>
+      <c r="E49" s="16">
+        <v>10250874</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
     </row>
     <row r="50" ht="43.5" customHeight="1" spans="1:33">
       <c r="A50" s="6"/>
-      <c r="B50" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D50" s="15">
-        <v>1204888981</v>
-      </c>
-      <c r="E50" s="16">
-        <v>10304619</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
     </row>
     <row r="51" ht="43.5" customHeight="1" spans="1:33">
       <c r="A51" s="6"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
+      <c r="B51" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1204888981</v>
+      </c>
+      <c r="E51" s="16">
+        <v>10304619</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
     </row>
     <row r="52" ht="43.5" customHeight="1" spans="1:33">
       <c r="A52" s="6"/>
-      <c r="B52" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C52" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D52" s="15">
-        <v>0</v>
-      </c>
-      <c r="E52" s="16">
-        <v>10225640</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
     </row>
     <row r="53" ht="43.5" customHeight="1" spans="1:33">
       <c r="A53" s="6"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
+      <c r="B53" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>10225640</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
     </row>
     <row r="54" ht="43.5" customHeight="1" spans="1:33">
       <c r="A54" s="6"/>
-      <c r="B54" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C54" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D54" s="15">
-        <v>1148677126</v>
-      </c>
-      <c r="E54" s="16">
-        <v>10320448</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
     </row>
     <row r="55" ht="43.5" customHeight="1" spans="1:33">
       <c r="A55" s="6"/>
@@ -4086,45 +4113,45 @@
         <v>0.833333333333333</v>
       </c>
       <c r="D55" s="15">
-        <v>1222158223</v>
+        <v>1148677126</v>
       </c>
       <c r="E55" s="16">
-        <v>10324431</v>
+        <v>10320448</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
     </row>
     <row r="56" ht="43.5" customHeight="1" spans="1:33">
       <c r="A56" s="6"/>
@@ -4132,48 +4159,48 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C56" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D56" s="15" t="s">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1222158223</v>
+      </c>
+      <c r="E56" s="16">
+        <v>10324431</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E56" s="16">
-        <v>10295555</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="19"/>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
     </row>
     <row r="57" ht="43.5" customHeight="1" spans="1:33">
       <c r="A57" s="6"/>
@@ -4181,132 +4208,132 @@
         <v>0.458333333333333</v>
       </c>
       <c r="C57" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D57" s="15">
-        <v>1208844862</v>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E57" s="16">
-        <v>10327358</v>
+        <v>10295555</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
     </row>
     <row r="58" ht="43.5" customHeight="1" spans="1:33">
       <c r="A58" s="6"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="19"/>
+      <c r="B58" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1208844862</v>
+      </c>
+      <c r="E58" s="16">
+        <v>10327358</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
     </row>
     <row r="59" ht="43.5" customHeight="1" spans="1:33">
       <c r="A59" s="6"/>
-      <c r="B59" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C59" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D59" s="15">
-        <v>1025301221</v>
-      </c>
-      <c r="E59" s="16">
-        <v>10327247</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="20"/>
+      <c r="AG59" s="20"/>
     </row>
     <row r="60" ht="43.5" customHeight="1" spans="1:33">
       <c r="A60" s="6"/>
@@ -4317,45 +4344,45 @@
         <v>0.833333333333333</v>
       </c>
       <c r="D60" s="15">
-        <v>1115231710</v>
+        <v>1025301221</v>
       </c>
       <c r="E60" s="16">
-        <v>10269211</v>
+        <v>10327247</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="20"/>
+      <c r="AG60" s="20"/>
     </row>
     <row r="61" ht="43.5" customHeight="1" spans="1:33">
       <c r="A61" s="6"/>
@@ -4365,46 +4392,46 @@
       <c r="C61" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="15">
+        <v>1115231710</v>
+      </c>
+      <c r="E61" s="16">
+        <v>10269211</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E61" s="16">
-        <v>10327295</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
-      <c r="AB61" s="19"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="19"/>
-      <c r="AG61" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="20"/>
+      <c r="AG61" s="20"/>
     </row>
     <row r="62" ht="43.5" customHeight="1" spans="1:33">
       <c r="A62" s="6"/>
@@ -4414,214 +4441,214 @@
       <c r="C62" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="D62" s="15">
-        <v>1026349902</v>
+      <c r="D62" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="E62" s="16">
-        <v>10327255</v>
+        <v>10327295</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="19"/>
-      <c r="AB62" s="19"/>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="I62" s="22"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
     </row>
     <row r="63" ht="43.5" customHeight="1" spans="1:33">
       <c r="A63" s="6"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="19"/>
-      <c r="Z63" s="19"/>
-      <c r="AA63" s="19"/>
-      <c r="AB63" s="19"/>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="19"/>
-      <c r="AG63" s="19"/>
+      <c r="B63" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1026349902</v>
+      </c>
+      <c r="E63" s="16">
+        <v>10327255</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
     </row>
     <row r="64" ht="43.5" customHeight="1" spans="1:33">
       <c r="A64" s="6"/>
-      <c r="B64" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C64" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D64" s="15">
-        <v>1022012888</v>
-      </c>
-      <c r="E64" s="16">
-        <v>10320409</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="19"/>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="19"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="19"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
     </row>
     <row r="65" ht="43.5" customHeight="1" spans="1:33">
       <c r="A65" s="6"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
+      <c r="B65" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D65" s="15">
+        <v>1022012888</v>
+      </c>
+      <c r="E65" s="16">
+        <v>10320409</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
     </row>
     <row r="66" ht="43.5" customHeight="1" spans="1:33">
       <c r="A66" s="6"/>
-      <c r="B66" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C66" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D66" s="15">
-        <v>1069956703</v>
-      </c>
-      <c r="E66" s="16">
-        <v>10330637</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
     </row>
     <row r="67" ht="43.5" customHeight="1" spans="1:33">
       <c r="A67" s="6"/>
@@ -4632,45 +4659,45 @@
         <v>0.833333333333333</v>
       </c>
       <c r="D67" s="15">
-        <v>1067201741</v>
+        <v>1069956703</v>
       </c>
       <c r="E67" s="16">
-        <v>10327292</v>
+        <v>10330637</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="I67" s="22"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
     </row>
     <row r="68" ht="43.5" customHeight="1" spans="1:33">
       <c r="A68" s="6"/>
@@ -4681,10 +4708,10 @@
         <v>0.833333333333333</v>
       </c>
       <c r="D68" s="15">
-        <v>1093126336</v>
+        <v>1067201741</v>
       </c>
       <c r="E68" s="16">
-        <v>10327224</v>
+        <v>10327292</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>82</v>
@@ -4693,607 +4720,862 @@
         <v>13</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="I68" s="22"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
     </row>
     <row r="69" ht="43.5" customHeight="1" spans="1:33">
       <c r="A69" s="6"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19"/>
-      <c r="AA69" s="19"/>
-      <c r="AB69" s="19"/>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="19"/>
+      <c r="B69" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1093126336</v>
+      </c>
+      <c r="E69" s="16">
+        <v>10327224</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
     </row>
     <row r="70" ht="43.5" customHeight="1" spans="1:33">
       <c r="A70" s="6"/>
-      <c r="B70" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C70" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D70" s="15">
-        <v>1091643089</v>
-      </c>
-      <c r="E70" s="16">
-        <v>10314789</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
     </row>
     <row r="71" ht="43.5" customHeight="1" spans="1:33">
       <c r="A71" s="6"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-    </row>
-    <row r="72" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A72" s="9">
+      <c r="B71" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D71" s="15">
+        <v>1091643089</v>
+      </c>
+      <c r="E71" s="16">
+        <v>10314789</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+    </row>
+    <row r="72" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A72" s="6"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+    </row>
+    <row r="73" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A73" s="9">
         <v>0.583333333333333</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-    </row>
-    <row r="73" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A73" s="12"/>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+    </row>
+    <row r="74" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A74" s="12"/>
+      <c r="B74" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I73" s="21"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="19"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="19"/>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="19"/>
-    </row>
-    <row r="74" ht="42" customHeight="1" spans="1:33">
-      <c r="A74" s="6"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="19"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="20"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
     </row>
     <row r="75" ht="42" customHeight="1" spans="1:33">
       <c r="A75" s="6"/>
-      <c r="B75" s="14">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C75" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D75" s="15">
-        <v>1127552530</v>
-      </c>
-      <c r="E75" s="16">
-        <v>10314763</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="21"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="19"/>
-      <c r="AF75" s="19"/>
-      <c r="AG75" s="19"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
     </row>
     <row r="76" ht="42" customHeight="1" spans="1:33">
       <c r="A76" s="6"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="W76" s="19"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="19"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="19"/>
-      <c r="AB76" s="19"/>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="19"/>
-      <c r="AF76" s="19"/>
-      <c r="AG76" s="19"/>
-    </row>
-    <row r="77" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A77" s="9">
+      <c r="B76" s="14">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1127552530</v>
+      </c>
+      <c r="E76" s="16">
+        <v>10314763</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="22"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="20"/>
+      <c r="AD76" s="20"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+    </row>
+    <row r="77" ht="42" customHeight="1" spans="1:33">
+      <c r="A77" s="6"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
+      <c r="AB77" s="20"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="20"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+    </row>
+    <row r="78" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A78" s="9">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+    </row>
+    <row r="79" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A79" s="12"/>
+      <c r="B79" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+    </row>
+    <row r="80" ht="42" customHeight="1" spans="1:33">
+      <c r="A80" s="6"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+    </row>
+    <row r="81" ht="42" customHeight="1" spans="1:33">
+      <c r="A81" s="6"/>
+      <c r="B81" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1147318485</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I81" s="22"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+    </row>
+    <row r="82" ht="42" customHeight="1" spans="1:33">
+      <c r="A82" s="6"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+    </row>
+    <row r="83" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A83" s="9">
         <v>0.833333333333333</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="19"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="19"/>
-      <c r="AB77" s="19"/>
-      <c r="AC77" s="19"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="19"/>
-    </row>
-    <row r="78" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A78" s="12"/>
-      <c r="B78" s="8" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+    </row>
+    <row r="84" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A84" s="12"/>
+      <c r="B84" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E84" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H84" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="19"/>
-      <c r="W78" s="19"/>
-      <c r="X78" s="19"/>
-      <c r="Y78" s="19"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="19"/>
-      <c r="AB78" s="19"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="19"/>
-      <c r="AE78" s="19"/>
-      <c r="AF78" s="19"/>
-      <c r="AG78" s="19"/>
-    </row>
-    <row r="79" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19"/>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="19"/>
-    </row>
-    <row r="80" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A80" s="6"/>
-      <c r="B80" s="14">
+      <c r="I84" s="22"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+    </row>
+    <row r="85" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A85" s="6"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+    </row>
+    <row r="86" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A86" s="6"/>
+      <c r="B86" s="14">
         <v>0.833333333333333</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C86" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D86" s="15">
         <v>1206043573</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="19"/>
-      <c r="W80" s="19"/>
-      <c r="X80" s="19"/>
-      <c r="Y80" s="19"/>
-      <c r="Z80" s="19"/>
-      <c r="AA80" s="19"/>
-      <c r="AB80" s="19"/>
-      <c r="AC80" s="19"/>
-      <c r="AD80" s="19"/>
-      <c r="AE80" s="19"/>
-      <c r="AF80" s="19"/>
-      <c r="AG80" s="19"/>
-    </row>
-    <row r="81" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A81" s="6"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
-      <c r="AG81" s="19"/>
-    </row>
-    <row r="82" ht="15" customHeight="1" spans="1:33">
-      <c r="A82" s="6"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="19"/>
-      <c r="Z82" s="19"/>
-      <c r="AA82" s="19"/>
-      <c r="AB82" s="19"/>
-      <c r="AC82" s="19"/>
-      <c r="AD82" s="19"/>
-      <c r="AE82" s="19"/>
-      <c r="AF82" s="19"/>
-      <c r="AG82" s="19"/>
+      <c r="F86" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" s="22"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+    </row>
+    <row r="87" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A87" s="6"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
+      <c r="AF87" s="20"/>
+      <c r="AG87" s="20"/>
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="1:33">
+      <c r="A88" s="6"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A83:A84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
